--- a/dashboard-ATC/Datos_de _servicio.xlsx
+++ b/dashboard-ATC/Datos_de _servicio.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bykov\Documents\BA\Dashboards\dashboard-ATC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C87BC4-D4E3-4C5C-99C8-C2641F2A8683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480107A-9A65-4D0E-8230-B183F2B40C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atenciones" sheetId="1" r:id="rId1"/>
+    <sheet name="i18n" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">atenciones!$A$1:$I$1010</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5054" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="1437">
   <si>
     <t>Área</t>
   </si>
@@ -4204,6 +4205,147 @@
   </si>
   <si>
     <t>Juan D.</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>dashboard_title</t>
+  </si>
+  <si>
+    <t>SERVICE TRACKING</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO DE SERVICIOS</t>
+  </si>
+  <si>
+    <t>customer_service</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Atención al Cliente</t>
+  </si>
+  <si>
+    <t>service_status</t>
+  </si>
+  <si>
+    <t>Service Status</t>
+  </si>
+  <si>
+    <t>Estado de los Atendimientos</t>
+  </si>
+  <si>
+    <t>service_time</t>
+  </si>
+  <si>
+    <t>Service Time</t>
+  </si>
+  <si>
+    <t>Tiempo de Atención</t>
+  </si>
+  <si>
+    <t>assistances_by_area</t>
+  </si>
+  <si>
+    <t>Assistances by Area</t>
+  </si>
+  <si>
+    <t>Total de Atendimientos por área</t>
+  </si>
+  <si>
+    <t>calls</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Llamadas</t>
+  </si>
+  <si>
+    <t>calls_by_date</t>
+  </si>
+  <si>
+    <t>Calls by Date</t>
+  </si>
+  <si>
+    <t>Total de Llamadas por Fecha</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>filter_period</t>
+  </si>
+  <si>
+    <t>Filter by Period</t>
+  </si>
+  <si>
+    <t>Filtrar por Periodo</t>
+  </si>
+  <si>
+    <t>total_assistances</t>
+  </si>
+  <si>
+    <t>Total Assistances</t>
+  </si>
+  <si>
+    <t>Asistencias Totales</t>
+  </si>
+  <si>
+    <t>avg_satisfaction</t>
+  </si>
+  <si>
+    <t>Average Satisfaction</t>
+  </si>
+  <si>
+    <t>Satisfacción Promedio</t>
+  </si>
+  <si>
+    <t>wait_time</t>
+  </si>
+  <si>
+    <t>Wait Time</t>
+  </si>
+  <si>
+    <t>Tiempo de Espera</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>Complaints</t>
+  </si>
+  <si>
+    <t>cancellations</t>
+  </si>
+  <si>
+    <t>Cancellations</t>
+  </si>
+  <si>
+    <t>exchanges</t>
+  </si>
+  <si>
+    <t>Exchanges</t>
   </si>
 </sst>
 </file>
@@ -4692,48 +4834,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -4751,9 +4893,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4791,7 +4933,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4897,7 +5039,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5039,7 +5181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5050,10 +5192,10 @@
   <dimension ref="A1:I1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -34359,6 +34501,213 @@
   </sheetData>
   <autoFilter ref="A1:I1010" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F6BE0E-3346-4F0B-A336-E459A8D34227}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -34570,15 +34919,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="dd067ca1-99dd-4f18-adec-862d4e118db1" xsi:nil="true"/>
@@ -34589,18 +34929,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3E9E96B-B852-4299-8074-0836CEEA4D98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3E9E96B-B852-4299-8074-0836CEEA4D98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de12120c-7603-42cb-9d7a-20d1349fd48c"/>
+    <ds:schemaRef ds:uri="dd067ca1-99dd-4f18-adec-862d4e118db1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5168A7AC-A17A-4ECA-BB74-5010FBCA2A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dd067ca1-99dd-4f18-adec-862d4e118db1"/>
+    <ds:schemaRef ds:uri="de12120c-7603-42cb-9d7a-20d1349fd48c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2E83A4-2492-40C0-8667-044ACA2DFAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5168A7AC-A17A-4ECA-BB74-5010FBCA2A30}"/>
 </file>